--- a/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS40101_図面登録依頼画面_rev.2.0.xlsx
+++ b/PJ管理/01.成果物/06.T_テスト／追加/1.仕様書/テスト仕様書兼報告書_DMS40101_図面登録依頼画面_rev.2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\03.JTEKT\00.プロジェクト別\09.2024年度DRASAPサーバ更新2024\30.設計ドキュメント\T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\06.T_テスト／追加\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE47D23-B2F4-411F-93E9-46185EDE72C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1964C4D-8694-4686-BCCA-32A5BD16D575}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="136">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2365,6 +2365,17 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>馬睿智</t>
+    <rPh sb="0" eb="3">
+      <t>マエイチ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2739,6 +2750,99 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2780,99 +2884,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3168,188 +3179,188 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="7.375" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.2109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.2109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.640625" style="67" customWidth="1"/>
-    <col min="4" max="4" width="15.78515625" style="43" customWidth="1"/>
-    <col min="5" max="5" width="42.2109375" style="66" customWidth="1"/>
-    <col min="6" max="6" width="10.640625" style="67" customWidth="1"/>
-    <col min="7" max="7" width="15.78515625" style="43" customWidth="1"/>
-    <col min="8" max="16384" width="7.42578125" style="43"/>
+    <col min="1" max="1" width="3.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="52" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="53" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="7.375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A2" s="44">
+    <row r="2" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="32">
         <v>45553</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-    </row>
-    <row r="3" spans="1:7" s="56" customFormat="1" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A3" s="44">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+    </row>
+    <row r="3" spans="1:7" s="42" customFormat="1" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3" s="32">
         <v>45561</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4" spans="1:7" ht="23.15" x14ac:dyDescent="0.65">
-      <c r="A4" s="44">
+      <c r="F3" s="40"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="37">
         <v>45616</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A5" s="44">
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-    </row>
-    <row r="6" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A6" s="44">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+    </row>
+    <row r="6" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-    </row>
-    <row r="7" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A7" s="44">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A8" s="44">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A9" s="44">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A10" s="59">
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A10" s="45">
         <v>9</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A11" s="44">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+    </row>
+    <row r="11" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:7" ht="12.45" x14ac:dyDescent="0.65">
-      <c r="A12" s="44">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" x14ac:dyDescent="0.4">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="C13" s="65"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C13" s="51"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3361,43 +3372,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EE8FD0-4ABB-4C07-B80B-0BBE3978AB23}">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" customWidth="1"/>
-    <col min="2" max="3" width="31.2109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.0703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="44.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="46.85546875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="46.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="84.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.2109375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="45.78515625" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="6.125" style="2" customWidth="1"/>
+    <col min="2" max="3" width="31.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="9" width="46.875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="46.875" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="84.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="45.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.6" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:17" ht="23.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="63"/>
       <c r="C2" s="17" t="s">
         <v>111</v>
       </c>
@@ -3408,11 +3419,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="33" t="s">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="5" t="s">
         <v>112</v>
       </c>
@@ -3424,27 +3435,27 @@
       </c>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="18"/>
     </row>
-    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:17" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="22" t="s">
         <v>110</v>
       </c>
@@ -3454,14 +3465,14 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -3481,7 +3492,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -3510,16 +3521,16 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="15"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="9">
         <v>2</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="55" t="s">
         <v>133</v>
       </c>
       <c r="F8" s="11"/>
@@ -3529,15 +3540,21 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
-      <c r="M8" s="68" t="s">
+      <c r="M8" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="13"/>
+      <c r="N8" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O8" s="14">
+        <v>45643</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>135</v>
+      </c>
       <c r="Q8" s="15"/>
     </row>
-    <row r="9" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A9" s="9">
         <v>3</v>
       </c>
@@ -3566,7 +3583,7 @@
       <c r="P9" s="13"/>
       <c r="Q9" s="15"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="9">
         <v>4</v>
       </c>
@@ -3591,7 +3608,7 @@
       <c r="P10" s="13"/>
       <c r="Q10" s="15"/>
     </row>
-    <row r="11" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>5</v>
       </c>
@@ -3616,7 +3633,7 @@
       <c r="P11" s="13"/>
       <c r="Q11" s="15"/>
     </row>
-    <row r="12" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>6</v>
       </c>
@@ -3641,7 +3658,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="1:17" ht="200.6" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:17" ht="204.75" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>7</v>
       </c>
@@ -3666,7 +3683,7 @@
       <c r="P13" s="13"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>8</v>
       </c>
@@ -3691,7 +3708,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>9</v>
       </c>
@@ -3716,7 +3733,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>10</v>
       </c>
@@ -3741,7 +3758,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>11</v>
       </c>
@@ -3772,7 +3789,7 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>12</v>
       </c>
@@ -3803,7 +3820,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="15"/>
     </row>
-    <row r="19" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
         <v>13</v>
       </c>
@@ -3832,7 +3849,7 @@
       <c r="P19" s="13"/>
       <c r="Q19" s="15"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>14</v>
       </c>
@@ -3863,7 +3880,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="15"/>
     </row>
-    <row r="21" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>15</v>
       </c>
@@ -3892,7 +3909,7 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A22" s="9">
         <v>16</v>
       </c>
@@ -3919,7 +3936,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>17</v>
       </c>
@@ -3946,7 +3963,7 @@
       <c r="P23" s="13"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>18</v>
       </c>
@@ -3977,7 +3994,7 @@
       <c r="P24" s="13"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>19</v>
       </c>
@@ -4004,7 +4021,7 @@
       <c r="P25" s="13"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>20</v>
       </c>
@@ -4033,7 +4050,7 @@
       <c r="P26" s="13"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>21</v>
       </c>
@@ -4060,7 +4077,7 @@
       <c r="P27" s="13"/>
       <c r="Q27" s="15"/>
     </row>
-    <row r="28" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>22</v>
       </c>
@@ -4087,7 +4104,7 @@
       <c r="P28" s="13"/>
       <c r="Q28" s="15"/>
     </row>
-    <row r="29" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>23</v>
       </c>
@@ -4120,7 +4137,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>24</v>
       </c>
@@ -4143,7 +4160,7 @@
       <c r="P30" s="13"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>25</v>
       </c>
@@ -4166,7 +4183,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>26</v>
       </c>
@@ -4189,7 +4206,7 @@
       <c r="P32" s="13"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>27</v>
       </c>
@@ -4218,7 +4235,7 @@
       <c r="P33" s="13"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>28</v>
       </c>
@@ -4241,7 +4258,7 @@
       <c r="P34" s="13"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>29</v>
       </c>
@@ -4264,7 +4281,7 @@
       <c r="P35" s="13"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="1:17" ht="92.6" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:17" ht="94.5" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>30</v>
       </c>
@@ -4287,7 +4304,7 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>31</v>
       </c>
@@ -4318,7 +4335,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>32</v>
       </c>
@@ -4341,7 +4358,7 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>33</v>
       </c>
@@ -4364,7 +4381,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="1:17" ht="108" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:17" ht="110.25" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>34</v>
       </c>
@@ -4387,7 +4404,7 @@
       <c r="P40" s="13"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>35</v>
       </c>
@@ -4416,7 +4433,7 @@
       <c r="P41" s="13"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>36</v>
       </c>
@@ -4439,7 +4456,7 @@
       <c r="P42" s="13"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>37</v>
       </c>
@@ -4462,7 +4479,7 @@
       <c r="P43" s="13"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>38</v>
       </c>
@@ -4485,7 +4502,7 @@
       <c r="P44" s="13"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>39</v>
       </c>
@@ -4514,7 +4531,7 @@
       <c r="P45" s="13"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>40</v>
       </c>
@@ -4537,7 +4554,7 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>41</v>
       </c>
@@ -4560,7 +4577,7 @@
       <c r="P47" s="13"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="1:17" ht="123.45" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:17" ht="126" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>42</v>
       </c>
@@ -4583,7 +4600,7 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A49" s="9">
         <v>43</v>
       </c>
@@ -4612,7 +4629,7 @@
       <c r="P49" s="13"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A50" s="9">
         <v>44</v>
       </c>
@@ -4635,7 +4652,7 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A51" s="9">
         <v>45</v>
       </c>
@@ -4658,7 +4675,7 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A52" s="9">
         <v>46</v>
       </c>
@@ -4681,7 +4698,7 @@
       <c r="P52" s="13"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="1:17" ht="46.3" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:17" ht="47.25" x14ac:dyDescent="0.4">
       <c r="A53" s="9">
         <v>47</v>
       </c>
@@ -4710,7 +4727,7 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A54" s="9">
         <v>48</v>
       </c>
@@ -4733,7 +4750,7 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A55" s="9">
         <v>49</v>
       </c>
@@ -4756,7 +4773,7 @@
       <c r="P55" s="13"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="1:17" ht="216" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:17" ht="220.5" x14ac:dyDescent="0.4">
       <c r="A56" s="9">
         <v>50</v>
       </c>
@@ -4779,7 +4796,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="1:17" ht="154.30000000000001" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:17" ht="157.5" x14ac:dyDescent="0.4">
       <c r="A57" s="9">
         <v>51</v>
       </c>
@@ -4808,7 +4825,7 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="1:17" ht="61.75" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:17" ht="63" x14ac:dyDescent="0.4">
       <c r="A58" s="9">
         <v>52</v>
       </c>
@@ -4831,7 +4848,7 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="1:17" ht="354.9" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:17" ht="362.25" x14ac:dyDescent="0.4">
       <c r="A59" s="9">
         <v>53</v>
       </c>
@@ -4854,7 +4871,7 @@
       <c r="P59" s="13"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="1:17" ht="277.75" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:17" ht="283.5" x14ac:dyDescent="0.4">
       <c r="A60" s="9">
         <v>54</v>
       </c>
@@ -4877,7 +4894,7 @@
       <c r="P60" s="13"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="1:17" ht="185.15" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:17" ht="189" x14ac:dyDescent="0.4">
       <c r="A61" s="9">
         <v>55</v>
       </c>
@@ -4904,7 +4921,7 @@
       <c r="P61" s="13"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A62" s="9">
         <v>56</v>
       </c>
@@ -4929,7 +4946,7 @@
       <c r="P62" s="13"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="1:17" ht="30.9" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:17" ht="31.5" x14ac:dyDescent="0.4">
       <c r="A63" s="9">
         <v>57</v>
       </c>
@@ -4956,7 +4973,7 @@
       <c r="P63" s="13"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="1:17" ht="138.9" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:17" ht="141.75" x14ac:dyDescent="0.4">
       <c r="A64" s="9">
         <v>58</v>
       </c>
@@ -5224,15 +5241,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
@@ -5243,14 +5251,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C2CA2F6-00F6-42AB-8241-77790C30DCCE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C2CA2F6-00F6-42AB-8241-77790C30DCCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CFD803F-9DFE-4212-B5DC-C2685DCD4C09}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1B4C27-AE34-4365-ADF2-F87DB968F104}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F1B4C27-AE34-4365-ADF2-F87DB968F104}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CFD803F-9DFE-4212-B5DC-C2685DCD4C09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>